--- a/StructureDefinition-ext-R5-DocumentReference.content.xlsx
+++ b/StructureDefinition-ext-R5-DocumentReference.content.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -131,7 +131,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -351,8 +351,7 @@
   </si>
   <si>
     <t>Element `DocumentReference.content.attachment` is part of an existing definition because parent element `DocumentReference.content` requires a cross-version extension.
-Element `DocumentReference.content.attachment` has is mapped to FHIR R4 element `DocumentReference.content.attachment`, but has no comparisons.
-Element `DocumentReference.content.attachment` has a context of Media.content based on following the parent source element upwards and mapping to `Media`.</t>
+Element `DocumentReference.content.attachment` has is mapped to FHIR R4 element `DocumentReference.content.attachment`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:attachment.id</t>
